--- a/demos/clients.xlsx
+++ b/demos/clients.xlsx
@@ -14,29 +14,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
-  <si>
-    <t>孩子姓名</t>
-  </si>
-  <si>
-    <t>孩子性别</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>性别</t>
   </si>
   <si>
     <t>生日</t>
   </si>
   <si>
-    <t>父亲姓名</t>
-  </si>
-  <si>
-    <t>父亲手机号码</t>
-  </si>
-  <si>
-    <t>母亲姓名</t>
-  </si>
-  <si>
-    <t>母亲手机号码</t>
-  </si>
-  <si>
     <t>家庭地址</t>
   </si>
   <si>
@@ -49,12 +37,6 @@
     <t>1998-01-10</t>
   </si>
   <si>
-    <t>张习</t>
-  </si>
-  <si>
-    <t>王经</t>
-  </si>
-  <si>
     <t>北京市东城区长安街</t>
   </si>
   <si>
@@ -67,12 +49,6 @@
     <t>2013-02-07</t>
   </si>
   <si>
-    <t>大麻花</t>
-  </si>
-  <si>
-    <t>小花</t>
-  </si>
-  <si>
     <t>中华人民共和国首都北京市的中心</t>
   </si>
   <si>
@@ -85,19 +61,10 @@
     <t>圧有</t>
   </si>
   <si>
-    <t>槈夺</t>
-  </si>
-  <si>
-    <t>克格勃</t>
-  </si>
-  <si>
     <t>北京市西城区</t>
   </si>
   <si>
     <t>枯夺</t>
-  </si>
-  <si>
-    <t>城一</t>
   </si>
   <si>
     <t>杨百</t>
@@ -123,9 +90,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -143,8 +110,112 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,14 +229,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -174,122 +254,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -302,6 +269,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -314,7 +299,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,25 +419,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,133 +431,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,6 +460,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -520,13 +511,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,15 +531,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,180 +550,161 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1092,22 +1059,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="8" width="16" customWidth="1"/>
+    <col min="1" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -1116,189 +1083,111 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="E2">
-        <v>135</v>
-      </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2">
-        <v>15409890990</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="B4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="E3">
-        <v>18412130001</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
         <v>18</v>
       </c>
-      <c r="G3">
-        <v>18412130002</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
         <v>19</v>
       </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
         <v>21</v>
       </c>
-      <c r="E4">
-        <v>18412130004</v>
+      <c r="B11" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5">
-        <v>18412130005</v>
-      </c>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5">
-        <v>18412130006</v>
-      </c>
-      <c r="H5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6">
-        <v>18412130007</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>184122130008</v>
-      </c>
-      <c r="G7">
-        <v>184122130008</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8">
-        <v>184122130009</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9">
-        <v>184122130010</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10">
-        <v>184122130011</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>184122130013</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>33</v>
-      </c>
       <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>184122130014</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
